--- a/raw-data/farmhub_raw_2023.xlsx
+++ b/raw-data/farmhub_raw_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31545635-7841-8C48-8E79-6C6AA478CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875DB45-D597-6B4E-BA80-3A7AB6643746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14560" yWindow="-28140" windowWidth="34160" windowHeight="26840" xr2:uid="{8C11EFA4-E327-134C-9653-82A048CD8AB5}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="34160" windowHeight="21100" xr2:uid="{8C11EFA4-E327-134C-9653-82A048CD8AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,10 +325,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,7 +647,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1294,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1623,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -2232,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
